--- a/uploads/resume_analysis.xlsx
+++ b/uploads/resume_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,30 +441,35 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Names</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Locations</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Emails</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Phone Numbers</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Matched Skills</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Relevance Score</t>
         </is>
@@ -478,31 +483,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>tester</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Athulya</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Kerala</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>athu2791@gmail.com</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>9207123768</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>{'testing_types': ['functional testing'], 'tools': ['selenium'], 'bug_tracking_tools': [], 'programming_languages': ['java'], 'methodologies': []}</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>23.08</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{'testing_types': [], 'tools': ['selenium'], 'bug_tracking_tools': [], 'programming_languages': ['java', 'python']}</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>33.33</v>
       </c>
     </row>
     <row r="3">
@@ -513,31 +523,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>tester</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Mohd_Ali</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Modular</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>alimazin7900@gmail.com</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>7994982174</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>{'testing_types': ['functional testing'], 'tools': ['selenium', 'testng'], 'bug_tracking_tools': [], 'programming_languages': ['java'], 'methodologies': []}</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>30.77</v>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{'testing_types': [], 'tools': ['selenium'], 'bug_tracking_tools': [], 'programming_languages': ['java', 'python']}</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>33.33</v>
       </c>
     </row>
     <row r="4">
@@ -548,31 +563,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>tester</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Rasana_Sherin_E.K_5</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Kallikandy, Kannur</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>raheemajeed@gmail.com</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>9946229571</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>{'testing_types': [], 'tools': [], 'bug_tracking_tools': [], 'programming_languages': [], 'methodologies': []}</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{'testing_types': [], 'tools': [], 'bug_tracking_tools': [], 'programming_languages': ['python']}</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>11.11</v>
       </c>
     </row>
     <row r="5">
@@ -583,31 +603,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>tester</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Roniya_M_V_2025</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>India, Kerala, Thrissur</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>Kerala, India, Thrissur</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>roniyamv@gmail.com</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>+91 9496669007</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>{'testing_types': [], 'tools': [], 'bug_tracking_tools': [], 'programming_languages': ['java'], 'methodologies': []}</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>7.69</v>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{'testing_types': [], 'tools': [], 'bug_tracking_tools': [], 'programming_languages': ['java', 'python']}</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>22.22</v>
       </c>
     </row>
     <row r="6">
@@ -618,31 +643,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>tester</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Shadiya</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>kerala</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>sshadiya99@gmail.com</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>8921402531</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>{'testing_types': [], 'tools': ['selenium'], 'bug_tracking_tools': [], 'programming_languages': ['java'], 'methodologies': []}</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>15.38</v>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{'testing_types': [], 'tools': ['selenium'], 'bug_tracking_tools': [], 'programming_languages': ['java', 'python']}</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>33.33</v>
       </c>
     </row>
     <row r="7">
@@ -653,31 +683,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>tester</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>Suji</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Troubleshooting, QA, Kerala, Palakkad, SQL</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>Kerala, SQL, Palakkad, Troubleshooting, QA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>sujibala014@gmail.com</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>9605517197</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>{'testing_types': ['manual testing', 'performance testing', 'regression testing'], 'tools': ['jmeter'], 'bug_tracking_tools': ['jira'], 'programming_languages': [], 'methodologies': ['agile']}</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>46.15</v>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{'testing_types': ['manual testing'], 'tools': ['jmeter'], 'bug_tracking_tools': ['jira'], 'programming_languages': []}</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>33.33</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/resume_analysis.xlsx
+++ b/uploads/resume_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>athulya_cv.pdf</t>
+          <t>AkshayTR_Resume.pdf</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -488,37 +488,33 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Athulya</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Kerala</t>
-        </is>
-      </c>
+          <t>Akshaytr</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>athu2791@gmail.com</t>
+          <t>akshayreji25@gmail.com</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9207123768</t>
+          <t>+91 9207565345</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'testing_types': [], 'tools': ['selenium'], 'bug_tracking_tools': [], 'programming_languages': ['java', 'python']}</t>
+          <t>{'testing_types': ['manual testing', 'api testing'], 'tools': ['selenium', 'postman', 'jmeter'], 'bug_tracking_tools': ['jira'], 'programming_languages': ['java', 'python']}</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>33.33</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>mohd_ali_cv.pdf</t>
+          <t>Aleena_V_resume_pdf.pdf</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -528,37 +524,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mohd_Ali</t>
+          <t>Aleena_V</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Modular</t>
+          <t>QC, Kannur, kerala, QA, Software</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>alimazin7900@gmail.com</t>
+          <t>aleenav9847@gmai.l.com</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7994982174</t>
+          <t>7902898690</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'testing_types': [], 'tools': ['selenium'], 'bug_tracking_tools': [], 'programming_languages': ['java', 'python']}</t>
+          <t>{'testing_types': ['manual testing', 'automation testing'], 'tools': ['selenium', 'jmeter'], 'bug_tracking_tools': [], 'programming_languages': ['java', 'python']}</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>33.33</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RASANA_SHERIN_E.K_5.pdf</t>
+          <t>athulya_cv.pdf</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -568,37 +564,37 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Rasana_Sherin_E.K_5</t>
+          <t>Athulya</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Kallikandy, Kannur</t>
+          <t>Kerala</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>raheemajeed@gmail.com</t>
+          <t>athu2791@gmail.com</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9946229571</t>
+          <t>9207123768</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'testing_types': [], 'tools': [], 'bug_tracking_tools': [], 'programming_languages': ['python']}</t>
+          <t>{'testing_types': [], 'tools': ['selenium'], 'bug_tracking_tools': [], 'programming_languages': ['java', 'python']}</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>11.11</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RESUME_RONIYA_M_V_2025.pdf</t>
+          <t>mohd_ali_cv.pdf</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -608,110 +604,30 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Roniya_M_V_2025</t>
+          <t>Mohd_Ali</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Kerala, India, Thrissur</t>
+          <t>Modular</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>roniyamv@gmail.com</t>
+          <t>alimazin7900@gmail.com</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>+91 9496669007</t>
+          <t>7994982174</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'testing_types': [], 'tools': [], 'bug_tracking_tools': [], 'programming_languages': ['java', 'python']}</t>
+          <t>{'testing_types': [], 'tools': ['selenium'], 'bug_tracking_tools': [], 'programming_languages': ['java', 'python']}</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>22.22</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>shadiya_Resume.pdf</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>tester</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Shadiya</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>kerala</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>sshadiya99@gmail.com</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8921402531</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>{'testing_types': [], 'tools': ['selenium'], 'bug_tracking_tools': [], 'programming_languages': ['java', 'python']}</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>33.33</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Suji.pdf</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>tester</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Suji</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Kerala, SQL, Palakkad, Troubleshooting, QA</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>sujibala014@gmail.com</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>9605517197</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>{'testing_types': ['manual testing'], 'tools': ['jmeter'], 'bug_tracking_tools': ['jira'], 'programming_languages': []}</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
         <v>33.33</v>
       </c>
     </row>
